--- a/data/trans_orig/P26-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P26-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>96011</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78780</v>
+        <v>80009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114109</v>
+        <v>114890</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2172576968877835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1782664976543086</v>
+        <v>0.1810485004088913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2582118019658862</v>
+        <v>0.2599798830061091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -765,19 +765,19 @@
         <v>76146</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61575</v>
+        <v>62242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91563</v>
+        <v>92292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2748159843020353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2222283103598234</v>
+        <v>0.2246360975812098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.33045744233615</v>
+        <v>0.333090111025014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -786,19 +786,19 @@
         <v>172156</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>149559</v>
+        <v>148153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195102</v>
+        <v>192979</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2394387991290993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2080096358542517</v>
+        <v>0.2060546767937457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2713516768710877</v>
+        <v>0.2684001687887098</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>345909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327811</v>
+        <v>327030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>363140</v>
+        <v>361911</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7827423031122165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7417881980341139</v>
+        <v>0.7400201169938909</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8217335023456913</v>
+        <v>0.8189514995911087</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -836,19 +836,19 @@
         <v>200933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>185516</v>
+        <v>184787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>215504</v>
+        <v>214837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7251840156979648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6695425576638501</v>
+        <v>0.6669098889749862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7777716896401765</v>
+        <v>0.7753639024187902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -857,19 +857,19 @@
         <v>546843</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>523897</v>
+        <v>526020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569440</v>
+        <v>570846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7605612008709006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7286483231289125</v>
+        <v>0.7315998312112902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7919903641457483</v>
+        <v>0.7939453232062545</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>75550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59770</v>
+        <v>60610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91646</v>
+        <v>92013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2284078735877065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1807003295867536</v>
+        <v>0.1832402106433902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2770677296979744</v>
+        <v>0.2781771823670425</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -982,19 +982,19 @@
         <v>126931</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110641</v>
+        <v>110176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147932</v>
+        <v>144935</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3620534177932915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3155873289768125</v>
+        <v>0.3142616802969309</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4219545029966995</v>
+        <v>0.4134076908118458</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>195</v>
@@ -1003,19 +1003,19 @@
         <v>202482</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178028</v>
+        <v>181593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>228580</v>
+        <v>227675</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2971741659572248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2612835101596119</v>
+        <v>0.2665166313691015</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3354775434586569</v>
+        <v>0.3341491675115581</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>255220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239124</v>
+        <v>238757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>271000</v>
+        <v>270160</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7715921264122935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7229322703020256</v>
+        <v>0.7218228176329575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8192996704132464</v>
+        <v>0.8167597893566099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>217</v>
@@ -1053,19 +1053,19 @@
         <v>223656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>202655</v>
+        <v>205652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>239946</v>
+        <v>240411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6379465822067085</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5780454970033004</v>
+        <v>0.5865923091881543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6844126710231874</v>
+        <v>0.685738319703069</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>465</v>
@@ -1074,19 +1074,19 @@
         <v>478876</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>452778</v>
+        <v>453683</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>503330</v>
+        <v>499765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7028258340427752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.664522456541343</v>
+        <v>0.6658508324884417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7387164898403881</v>
+        <v>0.7334833686308985</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>145156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123315</v>
+        <v>126317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167034</v>
+        <v>165777</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.282054129182527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2396158678740497</v>
+        <v>0.2454476642717892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3245656993463656</v>
+        <v>0.3221244709376748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1199,19 +1199,19 @@
         <v>68195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55723</v>
+        <v>55889</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80331</v>
+        <v>80771</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.438162115892641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3580282571904714</v>
+        <v>0.3590933352790656</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5161361516676477</v>
+        <v>0.5189643263750648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -1220,19 +1220,19 @@
         <v>213351</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>189824</v>
+        <v>189562</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236999</v>
+        <v>238785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.318302507224542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2832027331385151</v>
+        <v>0.2828123564514044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3535835633106524</v>
+        <v>0.356248618307768</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>369482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>347604</v>
+        <v>348861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>391323</v>
+        <v>388321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.717945870817473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6754343006536343</v>
+        <v>0.6778755290623252</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7603841321259502</v>
+        <v>0.7545523357282107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>86</v>
@@ -1270,19 +1270,19 @@
         <v>87444</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75308</v>
+        <v>74868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99916</v>
+        <v>99750</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5618378841073589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4838638483323524</v>
+        <v>0.481035673624935</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6419717428095287</v>
+        <v>0.6409066647209343</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>446</v>
@@ -1291,19 +1291,19 @@
         <v>456925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>433277</v>
+        <v>431491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>480452</v>
+        <v>480714</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.681697492775458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6464164366893477</v>
+        <v>0.643751381692232</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7167972668614849</v>
+        <v>0.7171876435485957</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>320506</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>290158</v>
+        <v>290861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>349879</v>
+        <v>352407</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2788741654019996</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.252468100792856</v>
+        <v>0.2530799561681099</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3044322681568205</v>
+        <v>0.3066322127875012</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>270</v>
@@ -1416,19 +1416,19 @@
         <v>277927</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251636</v>
+        <v>252109</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303036</v>
+        <v>303308</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4175048090677865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3780113221949715</v>
+        <v>0.3787214849182972</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4552246582600437</v>
+        <v>0.4556334157943913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>582</v>
@@ -1437,19 +1437,19 @@
         <v>598432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>557352</v>
+        <v>559427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>637953</v>
+        <v>637786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3297203708479396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3070862930851966</v>
+        <v>0.3082292647429606</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3514950897163007</v>
+        <v>0.3514031143454075</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>828778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>799405</v>
+        <v>796877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>859126</v>
+        <v>858423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7211258345980004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6955677318431794</v>
+        <v>0.6933677872124993</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7475318992071439</v>
+        <v>0.7469200438318901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -1487,19 +1487,19 @@
         <v>387758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362649</v>
+        <v>362377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414049</v>
+        <v>413576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5824951909322135</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5447753417399561</v>
+        <v>0.5443665842056089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6219886778050285</v>
+        <v>0.6212785150817032</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1200</v>
@@ -1508,19 +1508,19 @@
         <v>1216537</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1177016</v>
+        <v>1177183</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1257617</v>
+        <v>1255542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6702796291520604</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6485049102836993</v>
+        <v>0.6485968856545925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6929137069148034</v>
+        <v>0.6917707352570394</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>102360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87229</v>
+        <v>86354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120781</v>
+        <v>119500</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3228652549496472</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2751389539138548</v>
+        <v>0.2723800945015704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3809706845407031</v>
+        <v>0.3769287839082066</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -1633,19 +1633,19 @@
         <v>228820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>205411</v>
+        <v>207140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251568</v>
+        <v>253726</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4422323087875752</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3969892471902337</v>
+        <v>0.400330708277932</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4861953574611154</v>
+        <v>0.4903669018848938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>316</v>
@@ -1654,19 +1654,19 @@
         <v>331180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>302043</v>
+        <v>302135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>356987</v>
+        <v>364202</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3968811134922109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3619635169010557</v>
+        <v>0.3620738585040198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.427808627425283</v>
+        <v>0.4364547223212085</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>214675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196254</v>
+        <v>197535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>229806</v>
+        <v>230681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6771347450503529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6190293154592964</v>
+        <v>0.6230712160917932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7248610460861451</v>
+        <v>0.7276199054984291</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>276</v>
@@ -1704,19 +1704,19 @@
         <v>288601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>265853</v>
+        <v>263695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>312010</v>
+        <v>310281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5577676912124248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5138046425388845</v>
+        <v>0.5096330981151059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6030107528097662</v>
+        <v>0.5996692917220678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>483</v>
@@ -1725,19 +1725,19 @@
         <v>503276</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>477469</v>
+        <v>470254</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>532413</v>
+        <v>532321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.603118886507789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5721913725747169</v>
+        <v>0.5635452776787915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6380364830989446</v>
+        <v>0.6379261414959801</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>131787</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114574</v>
+        <v>115834</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146854</v>
+        <v>147745</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4515351029496606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3925572563269944</v>
+        <v>0.3968744459995996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5031584096779457</v>
+        <v>0.5062094030889196</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>373</v>
@@ -1850,19 +1850,19 @@
         <v>367737</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>338075</v>
+        <v>336508</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>398494</v>
+        <v>399089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3269056773282938</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3005371063427843</v>
+        <v>0.2991436137535667</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3542473982311924</v>
+        <v>0.3547763214301056</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>509</v>
@@ -1871,19 +1871,19 @@
         <v>499524</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>464318</v>
+        <v>465135</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>534073</v>
+        <v>536631</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3525802657850698</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3277303918513391</v>
+        <v>0.3283068001096189</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3769654463599721</v>
+        <v>0.3787713453809344</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>160078</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>145011</v>
+        <v>144120</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177291</v>
+        <v>176031</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5484648970503394</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4968415903220544</v>
+        <v>0.4937905969110803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6074427436730057</v>
+        <v>0.6031255540004002</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>748</v>
@@ -1921,19 +1921,19 @@
         <v>757166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>726409</v>
+        <v>725814</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>786828</v>
+        <v>788395</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6730943226717061</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6457526017688076</v>
+        <v>0.6452236785698942</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6994628936572157</v>
+        <v>0.700856386246433</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>912</v>
@@ -1942,19 +1942,19 @@
         <v>917244</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>882695</v>
+        <v>880137</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>952450</v>
+        <v>951633</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6474197342149302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6230345536400278</v>
+        <v>0.6212286546190656</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.672269608148661</v>
+        <v>0.671693199890381</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>871369</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>818457</v>
+        <v>824790</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>922935</v>
+        <v>926605</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2861158356555782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2687420397879776</v>
+        <v>0.2708214320989618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3030476175781154</v>
+        <v>0.304252524462833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1123</v>
@@ -2067,19 +2067,19 @@
         <v>1145756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1091318</v>
+        <v>1092593</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1201666</v>
+        <v>1197137</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3706372505210345</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3530272519377846</v>
+        <v>0.3534397597004427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3887232539467028</v>
+        <v>0.3872582037805611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1977</v>
@@ -2088,19 +2088,19 @@
         <v>2017125</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1944439</v>
+        <v>1944519</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2089881</v>
+        <v>2089887</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.328691948085248</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3168476677166846</v>
+        <v>0.3168607671908786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3405474820704983</v>
+        <v>0.3405484764954628</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2174144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2122578</v>
+        <v>2118908</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2227056</v>
+        <v>2220723</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7138841643444217</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6969523824218846</v>
+        <v>0.6957474755371671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7312579602120225</v>
+        <v>0.7291785679010385</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1898</v>
@@ -2138,19 +2138,19 @@
         <v>1945558</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1889648</v>
+        <v>1894177</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1999996</v>
+        <v>1998721</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6293627494789655</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6112767460532973</v>
+        <v>0.6127417962194384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6469727480622155</v>
+        <v>0.6465602402995571</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4036</v>
@@ -2159,19 +2159,19 @@
         <v>4119701</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4046945</v>
+        <v>4046939</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4192387</v>
+        <v>4192307</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6713080519147521</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6594525179295018</v>
+        <v>0.6594515235045373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6831523322833154</v>
+        <v>0.6831392328091214</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>115664</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97460</v>
+        <v>97325</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135906</v>
+        <v>137462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2869205630006135</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2417615120800426</v>
+        <v>0.2414281908156272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3371322546226506</v>
+        <v>0.340992490350844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2526,19 +2526,19 @@
         <v>92642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75409</v>
+        <v>76178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109651</v>
+        <v>110884</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3156775260605129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.256958304541857</v>
+        <v>0.2595778304830065</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3736373159308787</v>
+        <v>0.3778405034688149</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -2547,19 +2547,19 @@
         <v>208306</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181566</v>
+        <v>182176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234939</v>
+        <v>234203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2990356541926965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2606488492336817</v>
+        <v>0.2615249453982336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3372685694833181</v>
+        <v>0.3362128648156354</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>287459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267217</v>
+        <v>265661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305663</v>
+        <v>305798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7130794369993865</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6628677453773495</v>
+        <v>0.6590075096491561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7582384879199573</v>
+        <v>0.7585718091843729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -2597,19 +2597,19 @@
         <v>200827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183818</v>
+        <v>182585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218060</v>
+        <v>217291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6843224739394872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.626362684069121</v>
+        <v>0.6221594965311853</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7430416954581424</v>
+        <v>0.7404221695169937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>453</v>
@@ -2618,19 +2618,19 @@
         <v>488286</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>461653</v>
+        <v>462389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>515026</v>
+        <v>514416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7009643458073035</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6627314305166819</v>
+        <v>0.6637871351843646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7393511507663183</v>
+        <v>0.7384750546017664</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>107996</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90444</v>
+        <v>89436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127454</v>
+        <v>126373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2681577634874923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2245744474425987</v>
+        <v>0.2220723865334027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3164719003513113</v>
+        <v>0.3137895312447675</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -2743,19 +2743,19 @@
         <v>103442</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86350</v>
+        <v>86826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122555</v>
+        <v>122091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.320123214503463</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2672265077085759</v>
+        <v>0.2686996872524937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3792699800597287</v>
+        <v>0.3778343867497231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>190</v>
@@ -2764,19 +2764,19 @@
         <v>211439</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185479</v>
+        <v>187118</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>237945</v>
+        <v>238525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2912911791499752</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2555276511365597</v>
+        <v>0.2577854911924879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3278080477863671</v>
+        <v>0.3286065076927512</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>294737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275279</v>
+        <v>276360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>312289</v>
+        <v>313297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7318422365125078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6835280996486889</v>
+        <v>0.6862104687552324</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7754255525574012</v>
+        <v>0.7779276134665971</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -2814,19 +2814,19 @@
         <v>219691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>200578</v>
+        <v>201042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236783</v>
+        <v>236307</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6798767854965371</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6207300199402712</v>
+        <v>0.6221656132502769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7327734922914241</v>
+        <v>0.7313003127475062</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>463</v>
@@ -2835,19 +2835,19 @@
         <v>514428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>487922</v>
+        <v>487342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>540388</v>
+        <v>538749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7087088208500248</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6721919522136328</v>
+        <v>0.6713934923072492</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7444723488634403</v>
+        <v>0.7422145088075121</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>205505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180599</v>
+        <v>181165</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>228694</v>
+        <v>230342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3381477456494024</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2971668355734844</v>
+        <v>0.2980977531353686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3763035077088882</v>
+        <v>0.3790157690268599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -2960,19 +2960,19 @@
         <v>105349</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91824</v>
+        <v>89160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121333</v>
+        <v>120871</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.438134867798907</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3818880068929967</v>
+        <v>0.370806687644968</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5046111845429738</v>
+        <v>0.5026900494261738</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>303</v>
@@ -2981,19 +2981,19 @@
         <v>310854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283579</v>
+        <v>286194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>340075</v>
+        <v>339448</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3664926264342014</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3343360563973892</v>
+        <v>0.3374191803520317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4009447960624393</v>
+        <v>0.4002056747067338</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>402232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>379043</v>
+        <v>377395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427138</v>
+        <v>426572</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6618522543505977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6236964922911119</v>
+        <v>0.6209842309731401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7028331644265156</v>
+        <v>0.7019022468646314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -3031,19 +3031,19 @@
         <v>135099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119115</v>
+        <v>119577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148624</v>
+        <v>151288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.561865132201093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4953888154570261</v>
+        <v>0.4973099505738262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6181119931070033</v>
+        <v>0.629193312355032</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>495</v>
@@ -3052,19 +3052,19 @@
         <v>537331</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>508110</v>
+        <v>508737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>564606</v>
+        <v>561991</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6335073735657986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5990552039375607</v>
+        <v>0.599794325293266</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6656639436026107</v>
+        <v>0.6625808196479681</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>368912</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>336933</v>
+        <v>339430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>402352</v>
+        <v>404204</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3337388071453073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3048091057522472</v>
+        <v>0.3070676941197851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3639903120274925</v>
+        <v>0.3656662530560696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>291</v>
@@ -3177,19 +3177,19 @@
         <v>313051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>285080</v>
+        <v>284278</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>342286</v>
+        <v>340254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4200479370378905</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3825169165620265</v>
+        <v>0.3814408089887242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4592751212845224</v>
+        <v>0.4565491501438204</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>632</v>
@@ -3198,19 +3198,19 @@
         <v>681963</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>641835</v>
+        <v>637245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>728209</v>
+        <v>725182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3684960078296219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3468132352955801</v>
+        <v>0.3443330815880898</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3934847871289826</v>
+        <v>0.3918494638592273</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>736479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>703039</v>
+        <v>701187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>768458</v>
+        <v>765961</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6662611928546927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6360096879725075</v>
+        <v>0.6343337469439304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6951908942477527</v>
+        <v>0.6929323058802149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>400</v>
@@ -3248,19 +3248,19 @@
         <v>432223</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>402988</v>
+        <v>405020</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>460194</v>
+        <v>460996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5799520629621095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5407248787154776</v>
+        <v>0.5434508498561794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6174830834379734</v>
+        <v>0.6185591910112757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1092</v>
@@ -3269,19 +3269,19 @@
         <v>1168702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1122456</v>
+        <v>1125483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1208830</v>
+        <v>1213420</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6315039921703781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6065152128710174</v>
+        <v>0.6081505361407726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6531867647044204</v>
+        <v>0.6556669184119102</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>162822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142600</v>
+        <v>141667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183720</v>
+        <v>183614</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3305614505212012</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2895057857075199</v>
+        <v>0.2876120919996079</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3729884406760245</v>
+        <v>0.3727734295946687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -3394,19 +3394,19 @@
         <v>297756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>269648</v>
+        <v>271533</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>322945</v>
+        <v>325411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.410473108107724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3717251469977806</v>
+        <v>0.3743229540242373</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4451975069884724</v>
+        <v>0.448597712503864</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>433</v>
@@ -3415,19 +3415,19 @@
         <v>460578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>427462</v>
+        <v>426846</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>496577</v>
+        <v>498168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3781555269596171</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3509661115567812</v>
+        <v>0.3504599113351407</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4077120235343969</v>
+        <v>0.4090185050248803</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>329741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>308843</v>
+        <v>308949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349963</v>
+        <v>350896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6694385494787988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6270115593239759</v>
+        <v>0.6272265704053313</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7104942142924802</v>
+        <v>0.7123879080003922</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -3465,19 +3465,19 @@
         <v>427641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>402452</v>
+        <v>399986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>455749</v>
+        <v>453864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.589526891892276</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5548024930115276</v>
+        <v>0.551402287496136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6282748530022193</v>
+        <v>0.6256770459757627</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>708</v>
@@ -3486,19 +3486,19 @@
         <v>757381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>721382</v>
+        <v>719791</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>790497</v>
+        <v>791113</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6218444730403829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.592287976465603</v>
+        <v>0.5909814949751196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6490338884432187</v>
+        <v>0.6495400886648593</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>113012</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>97239</v>
+        <v>96889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128325</v>
+        <v>128832</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4279779044437224</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3682431865817594</v>
+        <v>0.366918442479146</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.485968589735863</v>
+        <v>0.4878856088319042</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>371</v>
@@ -3611,19 +3611,19 @@
         <v>389224</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>356343</v>
+        <v>359692</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>421694</v>
+        <v>419767</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3790324660241325</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3470126108008653</v>
+        <v>0.3502741776169236</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4106525859400096</v>
+        <v>0.4087759150914638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>484</v>
@@ -3632,19 +3632,19 @@
         <v>502236</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>468317</v>
+        <v>468374</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>539688</v>
+        <v>539217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3890441641482618</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3627693621109765</v>
+        <v>0.3628136442547456</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4180549496889573</v>
+        <v>0.4176904006151133</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>151049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135736</v>
+        <v>135229</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166822</v>
+        <v>167172</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5720220955562776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5140314102641369</v>
+        <v>0.5121143911680957</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6317568134182405</v>
+        <v>0.6330815575208539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>597</v>
@@ -3682,19 +3682,19 @@
         <v>637664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>605194</v>
+        <v>607121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>670545</v>
+        <v>667196</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6209675339758675</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5893474140599902</v>
+        <v>0.5912240849085362</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6529873891991346</v>
+        <v>0.6497258223830764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>746</v>
@@ -3703,19 +3703,19 @@
         <v>788713</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>751261</v>
+        <v>751732</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>822632</v>
+        <v>822575</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6109558358517383</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5819450503110425</v>
+        <v>0.5823095993848868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6372306378890233</v>
+        <v>0.6371863557452543</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1073912</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1013237</v>
+        <v>1015261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1132410</v>
+        <v>1131166</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3278510918899947</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3093278790016476</v>
+        <v>0.3099459519028089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3457098672308964</v>
+        <v>0.3453300600400914</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1214</v>
@@ -3828,19 +3828,19 @@
         <v>1301463</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1244975</v>
+        <v>1241693</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1364103</v>
+        <v>1354028</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3879627194662609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3711238057273066</v>
+        <v>0.3701454132911288</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4066355388204522</v>
+        <v>0.4036323071328585</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2227</v>
@@ -3849,19 +3849,19 @@
         <v>2375375</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2293986</v>
+        <v>2292842</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2453991</v>
+        <v>2457159</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3582650254173692</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3459895729748095</v>
+        <v>0.3458171071818017</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3701223051373732</v>
+        <v>0.3706001437749751</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2201696</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2143198</v>
+        <v>2144442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2262371</v>
+        <v>2260347</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6721489081100053</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6542901327691033</v>
+        <v>0.6546699399599084</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6906721209983523</v>
+        <v>0.6900540480971911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1898</v>
@@ -3899,19 +3899,19 @@
         <v>2053145</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1990505</v>
+        <v>2000580</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2109633</v>
+        <v>2112915</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6120372805337391</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5933644611795478</v>
+        <v>0.5963676928671415</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6288761942726933</v>
+        <v>0.6298545867088712</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3957</v>
@@ -3920,19 +3920,19 @@
         <v>4254842</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4176226</v>
+        <v>4173058</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4336231</v>
+        <v>4337375</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6417349745826307</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.629877694862627</v>
+        <v>0.6293998562250247</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6540104270251905</v>
+        <v>0.654182892818198</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>71606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56591</v>
+        <v>58134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88142</v>
+        <v>88499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1880598349740922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1486249572176729</v>
+        <v>0.1526764318127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2314868070541118</v>
+        <v>0.2324258321596788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -4287,19 +4287,19 @@
         <v>72911</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57821</v>
+        <v>59899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88936</v>
+        <v>89184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2296788637614334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1821427787131163</v>
+        <v>0.1886905451829365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2801581881484499</v>
+        <v>0.2809416522830821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>139</v>
@@ -4308,19 +4308,19 @@
         <v>144517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122944</v>
+        <v>123335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165911</v>
+        <v>168888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2069822985260746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1760844293906943</v>
+        <v>0.1766444926291652</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.237622663402972</v>
+        <v>0.2418865954775264</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>309157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292621</v>
+        <v>292264</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>324172</v>
+        <v>322629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8119401650259077</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7685131929458883</v>
+        <v>0.7675741678403212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8513750427823271</v>
+        <v>0.8473235681873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -4358,19 +4358,19 @@
         <v>244537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228512</v>
+        <v>228264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259627</v>
+        <v>257549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7703211362385666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7198418118515499</v>
+        <v>0.7190583477169175</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8178572212868838</v>
+        <v>0.8113094548170634</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>521</v>
@@ -4379,19 +4379,19 @@
         <v>553693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>532299</v>
+        <v>529322</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575266</v>
+        <v>574875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7930177014739254</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.762377336597028</v>
+        <v>0.7581134045224739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8239155706093056</v>
+        <v>0.8233555073708354</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>71349</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56990</v>
+        <v>57732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87803</v>
+        <v>87885</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2008226958338539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1604076776079638</v>
+        <v>0.1624939024370967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2471326367088042</v>
+        <v>0.2473655335224546</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -4504,19 +4504,19 @@
         <v>79557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63994</v>
+        <v>65106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96071</v>
+        <v>98099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2325735684644848</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1870763550476401</v>
+        <v>0.1903280073582171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2808491075320002</v>
+        <v>0.2867788548312807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -4525,19 +4525,19 @@
         <v>150906</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130427</v>
+        <v>129655</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173934</v>
+        <v>172563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2163973691171268</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1870294938990206</v>
+        <v>0.1859227349544368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2494186156083067</v>
+        <v>0.2474522998400324</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>283936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>267482</v>
+        <v>267400</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298295</v>
+        <v>297553</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7991773041661461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7528673632911953</v>
+        <v>0.7526344664775457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8395923223920362</v>
+        <v>0.8375060975629034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>251</v>
@@ -4575,19 +4575,19 @@
         <v>262516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>246002</v>
+        <v>243974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278079</v>
+        <v>276967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7674264315355153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7191508924679998</v>
+        <v>0.7132211451687186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8129236449523599</v>
+        <v>0.8096719926417828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>517</v>
@@ -4596,19 +4596,19 @@
         <v>546452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>523424</v>
+        <v>524795</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>566931</v>
+        <v>567703</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7836026308828732</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7505813843916933</v>
+        <v>0.7525477001599675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8129705061009793</v>
+        <v>0.8140772650455631</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>125572</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106581</v>
+        <v>108238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145522</v>
+        <v>146567</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2574435168581351</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2185080665777285</v>
+        <v>0.221904857828045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2983442181977359</v>
+        <v>0.3004871003230322</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -4721,19 +4721,19 @@
         <v>32936</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23270</v>
+        <v>23209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45210</v>
+        <v>43950</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2150435505126922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1519295611286881</v>
+        <v>0.1515346370820056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2951825406027511</v>
+        <v>0.2869527360474173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -4742,19 +4742,19 @@
         <v>158508</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136153</v>
+        <v>134921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>185218</v>
+        <v>182387</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2473112641604581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2124306874736777</v>
+        <v>0.2105090169189887</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2889844731723828</v>
+        <v>0.2845668552142081</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>362194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>342244</v>
+        <v>341199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>381185</v>
+        <v>379528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7425564831418648</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7016557818022636</v>
+        <v>0.6995128996769675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7814919334222713</v>
+        <v>0.778095142171955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -4792,19 +4792,19 @@
         <v>120225</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107951</v>
+        <v>109211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129891</v>
+        <v>129952</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7849564494873078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7048174593972488</v>
+        <v>0.7130472639525827</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8480704388713118</v>
+        <v>0.8484653629179945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>463</v>
@@ -4813,19 +4813,19 @@
         <v>482419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>455709</v>
+        <v>458540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>504774</v>
+        <v>506006</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7526887358395419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7110155268276173</v>
+        <v>0.7154331447857919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7875693125263222</v>
+        <v>0.7894909830810113</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>290738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>259408</v>
+        <v>259297</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>321031</v>
+        <v>321641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2696421362548572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2405855057476752</v>
+        <v>0.2404825161208676</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2977365898401904</v>
+        <v>0.2983029589903832</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>226</v>
@@ -4938,19 +4938,19 @@
         <v>231168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206142</v>
+        <v>206667</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259286</v>
+        <v>257199</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3000445547616381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2675613120295195</v>
+        <v>0.2682436191945386</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3365396838491188</v>
+        <v>0.3338317100638291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>498</v>
@@ -4959,19 +4959,19 @@
         <v>521906</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>482097</v>
+        <v>478173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>560923</v>
+        <v>562487</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2823124639064627</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2607788255477257</v>
+        <v>0.2586558858725085</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3034174714427768</v>
+        <v>0.3042635951587417</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>787499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>757206</v>
+        <v>756596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>818829</v>
+        <v>818940</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7303578637451428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7022634101598098</v>
+        <v>0.7016970410096169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.759414494252325</v>
+        <v>0.7595174838791324</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>519</v>
@@ -5009,19 +5009,19 @@
         <v>539278</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>511160</v>
+        <v>513247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>564304</v>
+        <v>563779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6999554452383618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6634603161508812</v>
+        <v>0.6661682899361708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7324386879704805</v>
+        <v>0.7317563808054615</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1280</v>
@@ -5030,19 +5030,19 @@
         <v>1326777</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1287760</v>
+        <v>1286196</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1366586</v>
+        <v>1370510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7176875360935373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6965825285572232</v>
+        <v>0.6957364048412582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7392211744522743</v>
+        <v>0.7413441141274915</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>135162</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115658</v>
+        <v>116110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157356</v>
+        <v>155541</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2416343553453911</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2067664930280559</v>
+        <v>0.2075753908860139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2813128717363526</v>
+        <v>0.278067781111373</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -5155,19 +5155,19 @@
         <v>208010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184837</v>
+        <v>184977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>232154</v>
+        <v>234899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3027764034401799</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2690472625507949</v>
+        <v>0.2692500389193294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3379210795857018</v>
+        <v>0.3419166564630778</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>326</v>
@@ -5176,19 +5176,19 @@
         <v>343171</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>311617</v>
+        <v>312733</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375272</v>
+        <v>374045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2753362149648859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.250019235020548</v>
+        <v>0.2509148364867428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3010917693853727</v>
+        <v>0.3001072763066396</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>424202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402008</v>
+        <v>403823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>443706</v>
+        <v>443254</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.758365644654609</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7186871282636473</v>
+        <v>0.721932218888627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7932335069719441</v>
+        <v>0.7924246091139862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>452</v>
@@ -5226,19 +5226,19 @@
         <v>478997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>454853</v>
+        <v>452108</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>502170</v>
+        <v>502030</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.69722359655982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6620789204142981</v>
+        <v>0.658083343536922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.730952737449205</v>
+        <v>0.7307499610806705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>863</v>
@@ -5247,19 +5247,19 @@
         <v>903200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>871099</v>
+        <v>872326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>934754</v>
+        <v>933638</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7246637850351141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6989082306146273</v>
+        <v>0.69989272369336</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.749980764979452</v>
+        <v>0.7490851635132569</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>97756</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>83039</v>
+        <v>81576</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114697</v>
+        <v>117094</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3480104380004716</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2956183889383025</v>
+        <v>0.2904087442036439</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4083219806787656</v>
+        <v>0.4168560375043207</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>235</v>
@@ -5372,19 +5372,19 @@
         <v>248407</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>220828</v>
+        <v>223000</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>277631</v>
+        <v>277278</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2483439179466308</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2207712710048958</v>
+        <v>0.2229425275979364</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2775602005126668</v>
+        <v>0.2772075222723772</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>328</v>
@@ -5393,19 +5393,19 @@
         <v>346163</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>316040</v>
+        <v>312560</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>377844</v>
+        <v>379204</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2701962579980694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.24668340394224</v>
+        <v>0.2439670020818804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2949244606728788</v>
+        <v>0.2959861508429037</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>183143</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166202</v>
+        <v>163805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197860</v>
+        <v>199323</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6519895619995284</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5916780193212342</v>
+        <v>0.5831439624956793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7043816110616973</v>
+        <v>0.7095912557963562</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>687</v>
@@ -5443,19 +5443,19 @@
         <v>751849</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>722625</v>
+        <v>722978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>779428</v>
+        <v>777256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7516560820533692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7224397994873332</v>
+        <v>0.7227924777276217</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7792287289951041</v>
+        <v>0.7770574724020629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>860</v>
@@ -5464,19 +5464,19 @@
         <v>934992</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>903311</v>
+        <v>901951</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>965115</v>
+        <v>968595</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7298037420019305</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7050755393271212</v>
+        <v>0.704013849157096</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7533165960577599</v>
+        <v>0.7560329979181191</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>792183</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>741323</v>
+        <v>744632</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>836049</v>
+        <v>846061</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.252101867573658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2359163021702778</v>
+        <v>0.236969233927687</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2660615980963295</v>
+        <v>0.2692479268987102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>839</v>
@@ -5589,19 +5589,19 @@
         <v>872990</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>821446</v>
+        <v>821016</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>924280</v>
+        <v>925706</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2669373954358671</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2511767921017978</v>
+        <v>0.2510452503967953</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2826205503983639</v>
+        <v>0.2830565939442688</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1582</v>
@@ -5610,19 +5610,19 @@
         <v>1665173</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1596881</v>
+        <v>1589740</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1731849</v>
+        <v>1742519</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2596677828627932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2490184322277456</v>
+        <v>0.2479047196894626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2700652940551596</v>
+        <v>0.2717291610602292</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2350130</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2306264</v>
+        <v>2296252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2400990</v>
+        <v>2397681</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.747898132426342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7339384019036705</v>
+        <v>0.7307520731012895</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7640836978297223</v>
+        <v>0.763030766072313</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2255</v>
@@ -5660,19 +5660,19 @@
         <v>2397401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2346111</v>
+        <v>2344685</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2448945</v>
+        <v>2449375</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7330626045641329</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.717379449601636</v>
+        <v>0.7169434060557313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7488232078982021</v>
+        <v>0.7489547496032047</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4504</v>
@@ -5681,19 +5681,19 @@
         <v>4747531</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4680855</v>
+        <v>4670185</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4815823</v>
+        <v>4822964</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7403322171372068</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7299347059448404</v>
+        <v>0.7282708389397707</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7509815677722544</v>
+        <v>0.7520952803105373</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>46012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34149</v>
+        <v>33887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62195</v>
+        <v>61603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09116635746269319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0676610908936459</v>
+        <v>0.0671431323114727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1232313467216744</v>
+        <v>0.1220574298277068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -6048,19 +6048,19 @@
         <v>45553</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34767</v>
+        <v>34910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59154</v>
+        <v>58471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1010786775294617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07714556242456021</v>
+        <v>0.07746186744209431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1312590358071377</v>
+        <v>0.1297431295040347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -6069,19 +6069,19 @@
         <v>91565</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74158</v>
+        <v>76384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110404</v>
+        <v>112750</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09584221165014539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07762243777476996</v>
+        <v>0.07995227887654634</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1155616727124805</v>
+        <v>0.1180176270269534</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>458689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442506</v>
+        <v>443098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>470552</v>
+        <v>470814</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9088336425373067</v>
+        <v>0.9088336425373068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8767686532783253</v>
+        <v>0.8779425701722928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9323389091063541</v>
+        <v>0.932856867688527</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>568</v>
@@ -6119,19 +6119,19 @@
         <v>405115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>391514</v>
+        <v>392197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>415901</v>
+        <v>415758</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8989213224705382</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8687409641928623</v>
+        <v>0.8702568704959649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9228544375754398</v>
+        <v>0.922538132557905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1037</v>
@@ -6140,19 +6140,19 @@
         <v>863804</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>844965</v>
+        <v>842619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>881211</v>
+        <v>878985</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9041577883498547</v>
+        <v>0.9041577883498545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8844383272875199</v>
+        <v>0.8819823729730466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9223775622252303</v>
+        <v>0.9200477211234535</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>35721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25455</v>
+        <v>24030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52038</v>
+        <v>50734</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08025600139208956</v>
+        <v>0.08025600139208955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05719111268527403</v>
+        <v>0.05398977317722312</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1169162820641667</v>
+        <v>0.113985673784625</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -6265,19 +6265,19 @@
         <v>50476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39329</v>
+        <v>40252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63126</v>
+        <v>64710</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1272470033235306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09914396899562435</v>
+        <v>0.1014710325382177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1591361282305472</v>
+        <v>0.1631274555069223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -6286,19 +6286,19 @@
         <v>86198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70673</v>
+        <v>70641</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104487</v>
+        <v>109018</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1024002770308</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08395687239901338</v>
+        <v>0.08391985160746046</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1241272428955152</v>
+        <v>0.1295101887740853</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>409370</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393053</v>
+        <v>394357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>419636</v>
+        <v>421061</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9197439986079103</v>
+        <v>0.9197439986079105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8830837179358332</v>
+        <v>0.8860143262153751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9428088873147259</v>
+        <v>0.9460102268227771</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -6336,19 +6336,19 @@
         <v>346205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333555</v>
+        <v>331971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357352</v>
+        <v>356429</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8727529966764694</v>
+        <v>0.8727529966764693</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8408638717694529</v>
+        <v>0.8368725444930778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9008560310043754</v>
+        <v>0.8985289674617825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>894</v>
@@ -6357,19 +6357,19 @@
         <v>755574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>737285</v>
+        <v>732754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>771099</v>
+        <v>771131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8975997229692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8758727571044843</v>
+        <v>0.8704898112259145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9160431276009865</v>
+        <v>0.9160801483925394</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>37752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27269</v>
+        <v>27385</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51801</v>
+        <v>50665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0876125910185819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0632845105913302</v>
+        <v>0.0635530622453369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1202155565333193</v>
+        <v>0.1175792644848039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -6482,19 +6482,19 @@
         <v>14285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9309</v>
+        <v>9146</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21813</v>
+        <v>22002</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08528561884623431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05557794816598528</v>
+        <v>0.05460018688205208</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1302272517923849</v>
+        <v>0.1313561726373054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -6503,19 +6503,19 @@
         <v>52038</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39526</v>
+        <v>39409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67128</v>
+        <v>68031</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08696124213637241</v>
+        <v>0.08696124213637239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06605198949358247</v>
+        <v>0.06585780569987279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1121786648152372</v>
+        <v>0.11368804847855</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>393149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>379100</v>
+        <v>380236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403632</v>
+        <v>403516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9123874089814181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8797844434666806</v>
+        <v>0.8824207355151961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9367154894086698</v>
+        <v>0.9364469377546629</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -6553,19 +6553,19 @@
         <v>153215</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145687</v>
+        <v>145498</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158191</v>
+        <v>158354</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9147143811537657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8697727482076146</v>
+        <v>0.8686438273626944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9444220518340147</v>
+        <v>0.9453998131179481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -6574,19 +6574,19 @@
         <v>546362</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>531272</v>
+        <v>530369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558874</v>
+        <v>558991</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9130387578636275</v>
+        <v>0.9130387578636278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8878213351847629</v>
+        <v>0.8863119515214499</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9339480105064174</v>
+        <v>0.9341421943001272</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>132901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108295</v>
+        <v>106802</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160534</v>
+        <v>162417</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1311234659068912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.106846481836577</v>
+        <v>0.1053735277359701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1583867910142106</v>
+        <v>0.1602452699444287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -6699,19 +6699,19 @@
         <v>141192</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122258</v>
+        <v>124502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162590</v>
+        <v>161733</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.176632143864154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1529452842234981</v>
+        <v>0.1557521569920784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2034005195257072</v>
+        <v>0.2023283412276421</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -6720,19 +6720,19 @@
         <v>274093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243229</v>
+        <v>244963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304853</v>
+        <v>309395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1511893830492394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1341648920668949</v>
+        <v>0.1351210459543969</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1681566622071521</v>
+        <v>0.1706620626846422</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>880653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>853020</v>
+        <v>851137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>905259</v>
+        <v>906752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8688765340931089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8416132089857894</v>
+        <v>0.8397547300555712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.893153518163423</v>
+        <v>0.8946264722640299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>944</v>
@@ -6770,19 +6770,19 @@
         <v>658167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636769</v>
+        <v>637626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>677101</v>
+        <v>674857</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8233678561358461</v>
+        <v>0.823367856135846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7965994804742926</v>
+        <v>0.7976716587723577</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8470547157765018</v>
+        <v>0.8442478430079214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1840</v>
@@ -6791,19 +6791,19 @@
         <v>1538820</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1508060</v>
+        <v>1503518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1569684</v>
+        <v>1567950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8488106169507607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8318433377928479</v>
+        <v>0.8293379373153575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8658351079331053</v>
+        <v>0.8648789540456032</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>69600</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52977</v>
+        <v>53079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88896</v>
+        <v>88414</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.141149071831797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1074369965501913</v>
+        <v>0.1076446720208987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1802823384439645</v>
+        <v>0.179304855715911</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -6916,19 +6916,19 @@
         <v>115636</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>98427</v>
+        <v>97039</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133405</v>
+        <v>132290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1528460770550875</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1301000087042883</v>
+        <v>0.1282648087358015</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1763330916856888</v>
+        <v>0.1748592561572029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -6937,19 +6937,19 @@
         <v>185236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>161157</v>
+        <v>161855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208497</v>
+        <v>210981</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1482305841804963</v>
+        <v>0.1482305841804962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1289617452738618</v>
+        <v>0.1295204481171507</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1668447429357099</v>
+        <v>0.168832392354051</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>423495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>404199</v>
+        <v>404681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>440118</v>
+        <v>440016</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.858850928168203</v>
+        <v>0.8588509281682029</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8197176615560355</v>
+        <v>0.820695144284089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8925630034498087</v>
+        <v>0.8923553279791012</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>997</v>
@@ -6987,19 +6987,19 @@
         <v>640915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>623146</v>
+        <v>624261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>658124</v>
+        <v>659512</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8471539229449125</v>
+        <v>0.8471539229449123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8236669083143112</v>
+        <v>0.8251407438427971</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.869899991295712</v>
+        <v>0.8717351912641986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1410</v>
@@ -7008,19 +7008,19 @@
         <v>1064410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1041149</v>
+        <v>1038665</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1088489</v>
+        <v>1087791</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8517694158195039</v>
+        <v>0.8517694158195037</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8331552570642904</v>
+        <v>0.8311676076459489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8710382547261383</v>
+        <v>0.8704795518828492</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>32366</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18460</v>
+        <v>19182</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52735</v>
+        <v>53300</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.14324526403667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08169852829770367</v>
+        <v>0.0848939350181931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2333944048998217</v>
+        <v>0.2358920628835824</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -7133,19 +7133,19 @@
         <v>86010</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66853</v>
+        <v>67248</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107757</v>
+        <v>106603</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1153513399522619</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0896596213764608</v>
+        <v>0.09018855630405961</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1445169426147937</v>
+        <v>0.1429692040724806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -7154,19 +7154,19 @@
         <v>118376</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96209</v>
+        <v>95362</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147287</v>
+        <v>146028</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1218383101972845</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09902283718055309</v>
+        <v>0.09815070462782746</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1515944993578807</v>
+        <v>0.1502989334665672</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>193584</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>173215</v>
+        <v>172650</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>207490</v>
+        <v>206768</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8567547359633302</v>
+        <v>0.8567547359633301</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7666055951001784</v>
+        <v>0.7641079371164174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9183014717022963</v>
+        <v>0.9151060649818067</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>892</v>
@@ -7204,19 +7204,19 @@
         <v>659624</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>637877</v>
+        <v>639031</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>678781</v>
+        <v>678386</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8846486600477381</v>
+        <v>0.884648660047738</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8554830573852062</v>
+        <v>0.8570307959275195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9103403786235393</v>
+        <v>0.9098114436959404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>982</v>
@@ -7225,19 +7225,19 @@
         <v>853208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>824297</v>
+        <v>825556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>875375</v>
+        <v>876222</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8781616898027156</v>
+        <v>0.8781616898027155</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8484055006421194</v>
+        <v>0.8497010665334328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9009771628194468</v>
+        <v>0.9018492953721725</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>354352</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>312154</v>
+        <v>314264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>399468</v>
+        <v>397337</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.113819144447043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1002649543805742</v>
+        <v>0.100942783430891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1283105606196793</v>
+        <v>0.1276258920848973</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>594</v>
@@ -7350,19 +7350,19 @@
         <v>453153</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>417873</v>
+        <v>415813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>495989</v>
+        <v>492090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1366403092641129</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1260022978823042</v>
+        <v>0.12538109729902</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1495566125849437</v>
+        <v>0.1483811142427924</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>883</v>
@@ -7371,19 +7371,19 @@
         <v>807505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>753674</v>
+        <v>751276</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>866311</v>
+        <v>867309</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1255901647548951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.117217898487548</v>
+        <v>0.1168449916489932</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1347361324492522</v>
+        <v>0.1348912902087139</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2758940</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2713824</v>
+        <v>2715955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2801138</v>
+        <v>2799028</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.886180855552957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8716894393803206</v>
+        <v>0.8723741079151028</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.899735045619426</v>
+        <v>0.8990572165691092</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4119</v>
@@ -7421,19 +7421,19 @@
         <v>2863240</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2820404</v>
+        <v>2824303</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2898520</v>
+        <v>2900580</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.863359690735887</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8504433874150563</v>
+        <v>0.8516188857572078</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8739977021176958</v>
+        <v>0.8746189027009802</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6806</v>
@@ -7442,19 +7442,19 @@
         <v>5622180</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5563374</v>
+        <v>5562376</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5676011</v>
+        <v>5678409</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8744098352451048</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8652638675507478</v>
+        <v>0.8651087097912855</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8827821015124523</v>
+        <v>0.8831550083510069</v>
       </c>
     </row>
     <row r="24">
